--- a/lipids_charm_list.xlsx
+++ b/lipids_charm_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="330">
   <si>
     <t xml:space="preserve">Daug</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Surf. Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average area</t>
   </si>
   <si>
     <t xml:space="preserve">Size (charmm)</t>
@@ -1335,11 +1338,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1511,22 +1510,22 @@
   </sheetPr>
   <dimension ref="A1:T299"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I77" activeCellId="0" sqref="I77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,25 +1541,27 @@
       <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0"/>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>40</v>
@@ -1569,25 +1570,28 @@
         <f aca="false">D2*30</f>
         <v>1200</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="0" t="n">
+        <f aca="false">SQRT(E2)</f>
+        <v>34.6410161513775</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>55</v>
@@ -1596,25 +1600,28 @@
         <f aca="false">D3*30</f>
         <v>1650</v>
       </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="F3" s="0" t="n">
+        <f aca="false">SQRT(E3)</f>
+        <v>40.6201920231798</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="3"/>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>57.2</v>
@@ -1623,25 +1630,28 @@
         <f aca="false">D4*30</f>
         <v>1716</v>
       </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="0" t="n">
+        <f aca="false">SQRT(E4)</f>
+        <v>41.424630354416</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="3"/>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>63.5</v>
@@ -1650,25 +1660,28 @@
         <f aca="false">D5*30</f>
         <v>1905</v>
       </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="3"/>
+      <c r="F5" s="0" t="n">
+        <f aca="false">SQRT(E5)</f>
+        <v>43.6463056855904</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>63</v>
@@ -1677,25 +1690,28 @@
         <f aca="false">D6*30</f>
         <v>1890</v>
       </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
+      <c r="F6" s="0" t="n">
+        <f aca="false">SQRT(E6)</f>
+        <v>43.4741302385683</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>61.8</v>
@@ -1704,25 +1720,28 @@
         <f aca="false">D7*30</f>
         <v>1854</v>
       </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
+      <c r="F7" s="0" t="n">
+        <f aca="false">SQRT(E7)</f>
+        <v>43.058100283222</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>60.1</v>
@@ -1731,25 +1750,28 @@
         <f aca="false">D8*30</f>
         <v>1803</v>
       </c>
-      <c r="G8" s="0"/>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="3"/>
+      <c r="F8" s="0" t="n">
+        <f aca="false">SQRT(E8)</f>
+        <v>42.4617474911243</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>67.4</v>
@@ -1758,25 +1780,28 @@
         <f aca="false">D9*30</f>
         <v>2022</v>
       </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="3"/>
+      <c r="F9" s="0" t="n">
+        <f aca="false">SQRT(E9)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>58.8</v>
@@ -1785,25 +1810,28 @@
         <f aca="false">D10*30</f>
         <v>1764</v>
       </c>
-      <c r="G10" s="0"/>
-      <c r="H10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="3"/>
+      <c r="F10" s="0" t="n">
+        <f aca="false">SQRT(E10)</f>
+        <v>42</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>13</v>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>67.4</v>
@@ -1812,25 +1840,28 @@
         <f aca="false">D11*30</f>
         <v>2022</v>
       </c>
-      <c r="G11" s="0"/>
-      <c r="H11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="3"/>
+      <c r="F11" s="0" t="n">
+        <f aca="false">SQRT(E11)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>67.4</v>
@@ -1839,25 +1870,28 @@
         <f aca="false">D12*30</f>
         <v>2022</v>
       </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="3"/>
+      <c r="F12" s="0" t="n">
+        <f aca="false">SQRT(E12)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>13</v>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>78</v>
@@ -1866,25 +1900,28 @@
         <f aca="false">D13*30</f>
         <v>2340</v>
       </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="F13" s="0" t="n">
+        <f aca="false">SQRT(E13)</f>
+        <v>48.3735464897913</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="3"/>
+      <c r="I13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>13</v>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>64.8</v>
@@ -1893,25 +1930,28 @@
         <f aca="false">D14*30</f>
         <v>1944</v>
       </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="F14" s="0" t="n">
+        <f aca="false">SQRT(E14)</f>
+        <v>44.0908153700972</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="3"/>
+      <c r="I14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>13</v>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>67.4</v>
@@ -1920,25 +1960,28 @@
         <f aca="false">D15*30</f>
         <v>2022</v>
       </c>
-      <c r="G15" s="0"/>
-      <c r="H15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="3"/>
+      <c r="F15" s="0" t="n">
+        <f aca="false">SQRT(E15)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>13</v>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>67.4</v>
@@ -1947,25 +1990,28 @@
         <f aca="false">D16*30</f>
         <v>2022</v>
       </c>
-      <c r="G16" s="0"/>
-      <c r="H16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="3"/>
+      <c r="F16" s="0" t="n">
+        <f aca="false">SQRT(E16)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>13</v>
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>67.4</v>
@@ -1974,25 +2020,28 @@
         <f aca="false">D17*30</f>
         <v>2022</v>
       </c>
-      <c r="G17" s="0"/>
-      <c r="H17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="F17" s="0" t="n">
+        <f aca="false">SQRT(E17)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="3"/>
+      <c r="I17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>64.1</v>
@@ -2001,25 +2050,28 @@
         <f aca="false">D18*30</f>
         <v>1923</v>
       </c>
-      <c r="G18" s="0"/>
-      <c r="H18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="F18" s="0" t="n">
+        <f aca="false">SQRT(E18)</f>
+        <v>43.8520238985614</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="3"/>
+      <c r="I18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>64.1</v>
@@ -2028,18 +2080,22 @@
         <f aca="false">D19*30</f>
         <v>1923</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="3"/>
+      <c r="F19" s="0" t="n">
+        <f aca="false">SQRT(E19)</f>
+        <v>43.8520238985614</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
+      <c r="B20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>64.1</v>
@@ -2048,18 +2104,22 @@
         <f aca="false">D20*30</f>
         <v>1923</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="3"/>
+      <c r="F20" s="0" t="n">
+        <f aca="false">SQRT(E20)</f>
+        <v>43.8520238985614</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>64.1</v>
@@ -2068,18 +2128,22 @@
         <f aca="false">D21*30</f>
         <v>1923</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="3"/>
+      <c r="F21" s="0" t="n">
+        <f aca="false">SQRT(E21)</f>
+        <v>43.8520238985614</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>18</v>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>63</v>
@@ -2088,18 +2152,22 @@
         <f aca="false">D22*30</f>
         <v>1890</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="3"/>
+      <c r="F22" s="0" t="n">
+        <f aca="false">SQRT(E22)</f>
+        <v>43.4741302385683</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
+      <c r="B23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>65.5</v>
@@ -2108,18 +2176,22 @@
         <f aca="false">D23*30</f>
         <v>1965</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="3"/>
+      <c r="F23" s="0" t="n">
+        <f aca="false">SQRT(E23)</f>
+        <v>44.328320518603</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>18</v>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>68.3</v>
@@ -2128,18 +2200,22 @@
         <f aca="false">D24*30</f>
         <v>2049</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="3"/>
+      <c r="F24" s="0" t="n">
+        <f aca="false">SQRT(E24)</f>
+        <v>45.2658811910251</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>18</v>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>65.2</v>
@@ -2148,18 +2224,22 @@
         <f aca="false">D25*30</f>
         <v>1956</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="3"/>
+      <c r="F25" s="0" t="n">
+        <f aca="false">SQRT(E25)</f>
+        <v>44.226688774992</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>18</v>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>66.2</v>
@@ -2168,18 +2248,22 @@
         <f aca="false">D26*30</f>
         <v>1986</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="3"/>
+      <c r="F26" s="0" t="n">
+        <f aca="false">SQRT(E26)</f>
+        <v>44.5645599103144</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>18</v>
+      <c r="B27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>65.2</v>
@@ -2188,18 +2272,22 @@
         <f aca="false">D27*30</f>
         <v>1956</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="3"/>
+      <c r="F27" s="0" t="n">
+        <f aca="false">SQRT(E27)</f>
+        <v>44.226688774992</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>18</v>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>67</v>
@@ -2208,18 +2296,22 @@
         <f aca="false">D28*30</f>
         <v>2010</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="3"/>
+      <c r="F28" s="0" t="n">
+        <f aca="false">SQRT(E28)</f>
+        <v>44.8330235429198</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>18</v>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>67</v>
@@ -2228,18 +2320,22 @@
         <f aca="false">D29*30</f>
         <v>2010</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="3"/>
+      <c r="F29" s="0" t="n">
+        <f aca="false">SQRT(E29)</f>
+        <v>44.8330235429198</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>18</v>
+      <c r="B30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>69.7</v>
@@ -2248,18 +2344,22 @@
         <f aca="false">D30*30</f>
         <v>2091</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="3"/>
+      <c r="F30" s="0" t="n">
+        <f aca="false">SQRT(E30)</f>
+        <v>45.7274534606947</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>18</v>
+      <c r="B31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>70</v>
@@ -2268,18 +2368,22 @@
         <f aca="false">D31*30</f>
         <v>2100</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="3"/>
+      <c r="F31" s="0" t="n">
+        <f aca="false">SQRT(E31)</f>
+        <v>45.8257569495584</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>18</v>
+      <c r="B32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>66.7</v>
@@ -2288,18 +2392,22 @@
         <f aca="false">D32*30</f>
         <v>2001</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="3"/>
+      <c r="F32" s="0" t="n">
+        <f aca="false">SQRT(E32)</f>
+        <v>44.7325384926901</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>18</v>
+      <c r="B33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>66.5</v>
@@ -2308,18 +2416,22 @@
         <f aca="false">D33*30</f>
         <v>1995</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="3"/>
+      <c r="F33" s="0" t="n">
+        <f aca="false">SQRT(E33)</f>
+        <v>44.6654228682546</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>18</v>
+      <c r="B34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>62.3</v>
@@ -2328,18 +2440,22 @@
         <f aca="false">D34*30</f>
         <v>1869</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="3"/>
+      <c r="F34" s="0" t="n">
+        <f aca="false">SQRT(E34)</f>
+        <v>43.2319326424346</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>20</v>
+      <c r="B35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>60.8</v>
@@ -2348,18 +2464,22 @@
         <f aca="false">D35*30</f>
         <v>1824</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="3"/>
+      <c r="F35" s="0" t="n">
+        <f aca="false">SQRT(E35)</f>
+        <v>42.7083130081252</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>20</v>
+      <c r="B36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>59.9</v>
@@ -2368,18 +2488,22 @@
         <f aca="false">D36*30</f>
         <v>1797</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="3"/>
+      <c r="F36" s="0" t="n">
+        <f aca="false">SQRT(E36)</f>
+        <v>42.3910367884533</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>20</v>
+      <c r="B37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>59</v>
@@ -2388,18 +2512,22 @@
         <f aca="false">D37*30</f>
         <v>1770</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="3"/>
+      <c r="F37" s="0" t="n">
+        <f aca="false">SQRT(E37)</f>
+        <v>42.0713679359253</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>20</v>
+      <c r="B38" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>58.8</v>
@@ -2408,18 +2536,22 @@
         <f aca="false">D38*30</f>
         <v>1764</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="3"/>
+      <c r="F38" s="0" t="n">
+        <f aca="false">SQRT(E38)</f>
+        <v>42</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>20</v>
+      <c r="B39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>58.8</v>
@@ -2428,18 +2560,22 @@
         <f aca="false">D39*30</f>
         <v>1764</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="3"/>
+      <c r="F39" s="0" t="n">
+        <f aca="false">SQRT(E39)</f>
+        <v>42</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>20</v>
+      <c r="B40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>58.8</v>
@@ -2448,18 +2584,22 @@
         <f aca="false">D40*30</f>
         <v>1764</v>
       </c>
-      <c r="S40" s="2"/>
-      <c r="T40" s="3"/>
+      <c r="F40" s="0" t="n">
+        <f aca="false">SQRT(E40)</f>
+        <v>42</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>20</v>
+      <c r="B41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>60.4</v>
@@ -2468,18 +2608,22 @@
         <f aca="false">D41*30</f>
         <v>1812</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="3"/>
+      <c r="F41" s="0" t="n">
+        <f aca="false">SQRT(E41)</f>
+        <v>42.5675933075855</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>20</v>
+      <c r="B42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>56.9</v>
@@ -2488,18 +2632,22 @@
         <f aca="false">D42*30</f>
         <v>1707</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="3"/>
+      <c r="F42" s="0" t="n">
+        <f aca="false">SQRT(E42)</f>
+        <v>41.3158565202272</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>20</v>
+      <c r="B43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>58.6</v>
@@ -2508,18 +2656,22 @@
         <f aca="false">D43*30</f>
         <v>1758</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="3"/>
+      <c r="F43" s="0" t="n">
+        <f aca="false">SQRT(E43)</f>
+        <v>41.9285105864733</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>20</v>
+      <c r="B44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>62</v>
@@ -2528,18 +2680,22 @@
         <f aca="false">D44*30</f>
         <v>1860</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="3"/>
+      <c r="F44" s="0" t="n">
+        <f aca="false">SQRT(E44)</f>
+        <v>43.1277173056956</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>20</v>
+      <c r="B45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>62</v>
@@ -2548,16 +2704,20 @@
         <f aca="false">D45*30</f>
         <v>1860</v>
       </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">SQRT(E45)</f>
+        <v>43.1277173056956</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>20</v>
+      <c r="B46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>61.7</v>
@@ -2566,16 +2726,20 @@
         <f aca="false">D46*30</f>
         <v>1851</v>
       </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">SQRT(E46)</f>
+        <v>43.0232495285979</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>20</v>
+      <c r="B47" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>63.4</v>
@@ -2584,16 +2748,20 @@
         <f aca="false">D47*30</f>
         <v>1902</v>
       </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">SQRT(E47)</f>
+        <v>43.6119249747131</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>20</v>
+      <c r="B48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>61.4</v>
@@ -2602,16 +2770,20 @@
         <f aca="false">D48*30</f>
         <v>1842</v>
       </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">SQRT(E48)</f>
+        <v>42.9185274677499</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>20</v>
+      <c r="B49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>59</v>
@@ -2620,16 +2792,20 @@
         <f aca="false">D49*30</f>
         <v>1770</v>
       </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">SQRT(E49)</f>
+        <v>42.0713679359253</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>20</v>
+      <c r="B50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>57.5</v>
@@ -2638,16 +2814,20 @@
         <f aca="false">D50*30</f>
         <v>1725</v>
       </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">SQRT(E50)</f>
+        <v>41.5331193145904</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>22</v>
+      <c r="B51" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>57.2</v>
@@ -2656,16 +2836,20 @@
         <f aca="false">D51*30</f>
         <v>1716</v>
       </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">SQRT(E51)</f>
+        <v>41.424630354416</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>22</v>
+      <c r="B52" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>60.6</v>
@@ -2674,16 +2858,20 @@
         <f aca="false">D52*30</f>
         <v>1818</v>
       </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">SQRT(E52)</f>
+        <v>42.6380112106557</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>22</v>
+      <c r="B53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>63</v>
@@ -2692,16 +2880,20 @@
         <f aca="false">D53*30</f>
         <v>1890</v>
       </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">SQRT(E53)</f>
+        <v>43.4741302385683</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>22</v>
+      <c r="B54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>63</v>
@@ -2710,16 +2902,20 @@
         <f aca="false">D54*30</f>
         <v>1890</v>
       </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">SQRT(E54)</f>
+        <v>43.4741302385683</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>22</v>
+      <c r="B55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>68.5</v>
@@ -2728,16 +2924,20 @@
         <f aca="false">D55*30</f>
         <v>2055</v>
       </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">SQRT(E55)</f>
+        <v>45.3321078265726</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>22</v>
+      <c r="B56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>62</v>
@@ -2746,16 +2946,20 @@
         <f aca="false">D56*30</f>
         <v>1860</v>
       </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">SQRT(E56)</f>
+        <v>43.1277173056956</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>22</v>
+      <c r="B57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>67.4</v>
@@ -2764,16 +2968,20 @@
         <f aca="false">D57*30</f>
         <v>2022</v>
       </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">SQRT(E57)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>22</v>
+      <c r="B58" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>67.4</v>
@@ -2782,16 +2990,20 @@
         <f aca="false">D58*30</f>
         <v>2022</v>
       </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">SQRT(E58)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>22</v>
+      <c r="B59" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>67.4</v>
@@ -2800,16 +3012,20 @@
         <f aca="false">D59*30</f>
         <v>2022</v>
       </c>
+      <c r="F59" s="0" t="n">
+        <f aca="false">SQRT(E59)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>22</v>
+      <c r="B60" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>67.4</v>
@@ -2818,16 +3034,20 @@
         <f aca="false">D60*30</f>
         <v>2022</v>
       </c>
+      <c r="F60" s="0" t="n">
+        <f aca="false">SQRT(E60)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>22</v>
+      <c r="B61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>67.4</v>
@@ -2836,16 +3056,20 @@
         <f aca="false">D61*30</f>
         <v>2022</v>
       </c>
+      <c r="F61" s="0" t="n">
+        <f aca="false">SQRT(E61)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>22</v>
+      <c r="B62" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>67.4</v>
@@ -2854,16 +3078,20 @@
         <f aca="false">D62*30</f>
         <v>2022</v>
       </c>
+      <c r="F62" s="0" t="n">
+        <f aca="false">SQRT(E62)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>22</v>
+      <c r="B63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>67.4</v>
@@ -2872,16 +3100,20 @@
         <f aca="false">D63*30</f>
         <v>2022</v>
       </c>
+      <c r="F63" s="0" t="n">
+        <f aca="false">SQRT(E63)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>22</v>
+      <c r="B64" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>67.4</v>
@@ -2890,16 +3122,20 @@
         <f aca="false">D64*30</f>
         <v>2022</v>
       </c>
+      <c r="F64" s="0" t="n">
+        <f aca="false">SQRT(E64)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>26</v>
+      <c r="B65" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>58.1</v>
@@ -2908,16 +3144,20 @@
         <f aca="false">D65*30</f>
         <v>1743</v>
       </c>
+      <c r="F65" s="0" t="n">
+        <f aca="false">SQRT(E65)</f>
+        <v>41.7492514902962</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>26</v>
+      <c r="B66" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>58.1</v>
@@ -2926,16 +3166,20 @@
         <f aca="false">D66*30</f>
         <v>1743</v>
       </c>
+      <c r="F66" s="0" t="n">
+        <f aca="false">SQRT(E66)</f>
+        <v>41.7492514902962</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>26</v>
+      <c r="B67" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>60.8</v>
@@ -2944,16 +3188,20 @@
         <f aca="false">D67*30</f>
         <v>1824</v>
       </c>
+      <c r="F67" s="0" t="n">
+        <f aca="false">SQRT(E67)</f>
+        <v>42.7083130081252</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>26</v>
+      <c r="B68" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>60</v>
@@ -2962,16 +3210,20 @@
         <f aca="false">D68*30</f>
         <v>1800</v>
       </c>
+      <c r="F68" s="0" t="n">
+        <f aca="false">SQRT(E68)</f>
+        <v>42.4264068711929</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>26</v>
+      <c r="B69" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>60.4</v>
@@ -2980,16 +3232,20 @@
         <f aca="false">D69*30</f>
         <v>1812</v>
       </c>
+      <c r="F69" s="0" t="n">
+        <f aca="false">SQRT(E69)</f>
+        <v>42.5675933075855</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>26</v>
+      <c r="B70" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>61.7</v>
@@ -2998,16 +3254,20 @@
         <f aca="false">D70*30</f>
         <v>1851</v>
       </c>
+      <c r="F70" s="0" t="n">
+        <f aca="false">SQRT(E70)</f>
+        <v>43.0232495285979</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>26</v>
+      <c r="B71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>59.9</v>
@@ -3016,16 +3276,20 @@
         <f aca="false">D71*30</f>
         <v>1797</v>
       </c>
+      <c r="F71" s="0" t="n">
+        <f aca="false">SQRT(E71)</f>
+        <v>42.3910367884533</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>26</v>
+      <c r="B72" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>60.7</v>
@@ -3034,16 +3298,20 @@
         <f aca="false">D72*30</f>
         <v>1821</v>
       </c>
+      <c r="F72" s="0" t="n">
+        <f aca="false">SQRT(E72)</f>
+        <v>42.6731765867037</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>26</v>
+      <c r="B73" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>67.4</v>
@@ -3052,16 +3320,20 @@
         <f aca="false">D73*30</f>
         <v>2022</v>
       </c>
+      <c r="F73" s="0" t="n">
+        <f aca="false">SQRT(E73)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>26</v>
+      <c r="B74" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>65</v>
@@ -3070,16 +3342,20 @@
         <f aca="false">D74*30</f>
         <v>1950</v>
       </c>
+      <c r="F74" s="0" t="n">
+        <f aca="false">SQRT(E74)</f>
+        <v>44.1588043316392</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>26</v>
+      <c r="B75" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>71.6</v>
@@ -3088,16 +3364,20 @@
         <f aca="false">D75*30</f>
         <v>2148</v>
       </c>
+      <c r="F75" s="0" t="n">
+        <f aca="false">SQRT(E75)</f>
+        <v>46.3465209050259</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>26</v>
+      <c r="B76" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>65.1</v>
@@ -3106,16 +3386,20 @@
         <f aca="false">D76*30</f>
         <v>1953</v>
       </c>
+      <c r="F76" s="0" t="n">
+        <f aca="false">SQRT(E76)</f>
+        <v>44.1927595879687</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>26</v>
+      <c r="B77" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>67.4</v>
@@ -3124,16 +3408,20 @@
         <f aca="false">D77*30</f>
         <v>2022</v>
       </c>
+      <c r="F77" s="0" t="n">
+        <f aca="false">SQRT(E77)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>26</v>
+      <c r="B78" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>67.4</v>
@@ -3142,16 +3430,20 @@
         <f aca="false">D78*30</f>
         <v>2022</v>
       </c>
+      <c r="F78" s="0" t="n">
+        <f aca="false">SQRT(E78)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>24</v>
+      <c r="B79" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>67.4</v>
@@ -3160,18 +3452,21 @@
         <f aca="false">D79*30</f>
         <v>2022</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
+      <c r="F79" s="0" t="n">
+        <f aca="false">SQRT(E79)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G79" s="16"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>24</v>
+      <c r="B80" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>67.4</v>
@@ -3180,18 +3475,21 @@
         <f aca="false">D80*30</f>
         <v>2022</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
+      <c r="F80" s="0" t="n">
+        <f aca="false">SQRT(E80)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G80" s="16"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>24</v>
+      <c r="B81" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>67.4</v>
@@ -3200,18 +3498,21 @@
         <f aca="false">D81*30</f>
         <v>2022</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="F81" s="0" t="n">
+        <f aca="false">SQRT(E81)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>24</v>
+      <c r="B82" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>67.4</v>
@@ -3220,18 +3521,21 @@
         <f aca="false">D82*30</f>
         <v>2022</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
+      <c r="F82" s="0" t="n">
+        <f aca="false">SQRT(E82)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G82" s="16"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>24</v>
+      <c r="B83" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>67.4</v>
@@ -3240,18 +3544,21 @@
         <f aca="false">D83*30</f>
         <v>2022</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="F83" s="0" t="n">
+        <f aca="false">SQRT(E83)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>24</v>
+      <c r="B84" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>67.4</v>
@@ -3260,18 +3567,21 @@
         <f aca="false">D84*30</f>
         <v>2022</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
+      <c r="F84" s="0" t="n">
+        <f aca="false">SQRT(E84)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G84" s="16"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>24</v>
+      <c r="B85" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>67.4</v>
@@ -3280,18 +3590,21 @@
         <f aca="false">D85*30</f>
         <v>2022</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
+      <c r="F85" s="0" t="n">
+        <f aca="false">SQRT(E85)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G85" s="16"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>24</v>
+      <c r="B86" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>67.4</v>
@@ -3300,18 +3613,21 @@
         <f aca="false">D86*30</f>
         <v>2022</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="F86" s="0" t="n">
+        <f aca="false">SQRT(E86)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>24</v>
+      <c r="B87" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>67.4</v>
@@ -3320,18 +3636,21 @@
         <f aca="false">D87*30</f>
         <v>2022</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
+      <c r="F87" s="0" t="n">
+        <f aca="false">SQRT(E87)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G87" s="16"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>24</v>
+      <c r="B88" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>67.4</v>
@@ -3340,18 +3659,21 @@
         <f aca="false">D88*30</f>
         <v>2022</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
+      <c r="F88" s="0" t="n">
+        <f aca="false">SQRT(E88)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>24</v>
+      <c r="B89" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>67.4</v>
@@ -3360,18 +3682,21 @@
         <f aca="false">D89*30</f>
         <v>2022</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
+      <c r="F89" s="0" t="n">
+        <f aca="false">SQRT(E89)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G89" s="16"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>24</v>
+      <c r="B90" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>67.4</v>
@@ -3380,18 +3705,21 @@
         <f aca="false">D90*30</f>
         <v>2022</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
+      <c r="F90" s="0" t="n">
+        <f aca="false">SQRT(E90)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>24</v>
+      <c r="B91" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>67.4</v>
@@ -3400,18 +3728,21 @@
         <f aca="false">D91*30</f>
         <v>2022</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
+      <c r="F91" s="0" t="n">
+        <f aca="false">SQRT(E91)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>24</v>
+      <c r="B92" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>67.4</v>
@@ -3420,18 +3751,21 @@
         <f aca="false">D92*30</f>
         <v>2022</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
+      <c r="F92" s="0" t="n">
+        <f aca="false">SQRT(E92)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G92" s="16"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>24</v>
+      <c r="B93" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>67.4</v>
@@ -3440,18 +3774,21 @@
         <f aca="false">D93*30</f>
         <v>2022</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
+      <c r="F93" s="0" t="n">
+        <f aca="false">SQRT(E93)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G93" s="16"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>24</v>
+      <c r="B94" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>67.4</v>
@@ -3460,18 +3797,21 @@
         <f aca="false">D94*30</f>
         <v>2022</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
+      <c r="F94" s="0" t="n">
+        <f aca="false">SQRT(E94)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G94" s="16"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>24</v>
+      <c r="B95" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>67.4</v>
@@ -3480,18 +3820,21 @@
         <f aca="false">D95*30</f>
         <v>2022</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
+      <c r="F95" s="0" t="n">
+        <f aca="false">SQRT(E95)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G95" s="16"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>24</v>
+      <c r="B96" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>67.4</v>
@@ -3500,18 +3843,21 @@
         <f aca="false">D96*30</f>
         <v>2022</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
+      <c r="F96" s="0" t="n">
+        <f aca="false">SQRT(E96)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G96" s="16"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>24</v>
+      <c r="B97" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>67.4</v>
@@ -3520,18 +3866,21 @@
         <f aca="false">D97*30</f>
         <v>2022</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
+      <c r="F97" s="0" t="n">
+        <f aca="false">SQRT(E97)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G97" s="16"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>24</v>
+      <c r="B98" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>67.4</v>
@@ -3540,18 +3889,21 @@
         <f aca="false">D98*30</f>
         <v>2022</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
+      <c r="F98" s="0" t="n">
+        <f aca="false">SQRT(E98)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G98" s="16"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>24</v>
+      <c r="B99" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>67.4</v>
@@ -3560,18 +3912,21 @@
         <f aca="false">D99*30</f>
         <v>2022</v>
       </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
+      <c r="F99" s="0" t="n">
+        <f aca="false">SQRT(E99)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G99" s="16"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>24</v>
+      <c r="B100" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>67.4</v>
@@ -3580,18 +3935,21 @@
         <f aca="false">D100*30</f>
         <v>2022</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
+      <c r="F100" s="0" t="n">
+        <f aca="false">SQRT(E100)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G100" s="16"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>24</v>
+      <c r="B101" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>67.4</v>
@@ -3600,18 +3958,21 @@
         <f aca="false">D101*30</f>
         <v>2022</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
+      <c r="F101" s="0" t="n">
+        <f aca="false">SQRT(E101)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G101" s="16"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>24</v>
+      <c r="B102" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>67.4</v>
@@ -3620,18 +3981,21 @@
         <f aca="false">D102*30</f>
         <v>2022</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
+      <c r="F102" s="0" t="n">
+        <f aca="false">SQRT(E102)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G102" s="16"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>24</v>
+      <c r="B103" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>67.4</v>
@@ -3640,18 +4004,21 @@
         <f aca="false">D103*30</f>
         <v>2022</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
+      <c r="F103" s="0" t="n">
+        <f aca="false">SQRT(E103)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G103" s="16"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>24</v>
+      <c r="B104" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>67.4</v>
@@ -3660,18 +4027,21 @@
         <f aca="false">D104*30</f>
         <v>2022</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
+      <c r="F104" s="0" t="n">
+        <f aca="false">SQRT(E104)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G104" s="16"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>24</v>
+      <c r="B105" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>67.4</v>
@@ -3680,18 +4050,21 @@
         <f aca="false">D105*30</f>
         <v>2022</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
+      <c r="F105" s="0" t="n">
+        <f aca="false">SQRT(E105)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G105" s="16"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>24</v>
+      <c r="B106" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>67.4</v>
@@ -3700,18 +4073,21 @@
         <f aca="false">D106*30</f>
         <v>2022</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
+      <c r="F106" s="0" t="n">
+        <f aca="false">SQRT(E106)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G106" s="16"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>24</v>
+      <c r="B107" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>67.4</v>
@@ -3720,18 +4096,21 @@
         <f aca="false">D107*30</f>
         <v>2022</v>
       </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
+      <c r="F107" s="0" t="n">
+        <f aca="false">SQRT(E107)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G107" s="16"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>24</v>
+      <c r="B108" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>67.4</v>
@@ -3740,18 +4119,21 @@
         <f aca="false">D108*30</f>
         <v>2022</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
+      <c r="F108" s="0" t="n">
+        <f aca="false">SQRT(E108)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G108" s="16"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="B109" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>24</v>
+      <c r="B109" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>67.4</v>
@@ -3760,18 +4142,21 @@
         <f aca="false">D109*30</f>
         <v>2022</v>
       </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
+      <c r="F109" s="0" t="n">
+        <f aca="false">SQRT(E109)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G109" s="16"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="B110" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>24</v>
+      <c r="B110" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>67.4</v>
@@ -3780,18 +4165,21 @@
         <f aca="false">D110*30</f>
         <v>2022</v>
       </c>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
+      <c r="F110" s="0" t="n">
+        <f aca="false">SQRT(E110)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="B111" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>24</v>
+      <c r="B111" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>67.4</v>
@@ -3800,18 +4188,21 @@
         <f aca="false">D111*30</f>
         <v>2022</v>
       </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
+      <c r="F111" s="0" t="n">
+        <f aca="false">SQRT(E111)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B112" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>24</v>
+      <c r="B112" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>67.4</v>
@@ -3820,18 +4211,21 @@
         <f aca="false">D112*30</f>
         <v>2022</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
+      <c r="F112" s="0" t="n">
+        <f aca="false">SQRT(E112)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G112" s="16"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B113" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>24</v>
+      <c r="B113" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>67.4</v>
@@ -3840,18 +4234,21 @@
         <f aca="false">D113*30</f>
         <v>2022</v>
       </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
+      <c r="F113" s="0" t="n">
+        <f aca="false">SQRT(E113)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G113" s="16"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B114" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>24</v>
+      <c r="B114" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>67.4</v>
@@ -3860,18 +4257,21 @@
         <f aca="false">D114*30</f>
         <v>2022</v>
       </c>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
+      <c r="F114" s="0" t="n">
+        <f aca="false">SQRT(E114)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G114" s="16"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="B115" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>24</v>
+      <c r="B115" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D115" s="0" t="n">
         <v>67.4</v>
@@ -3880,18 +4280,21 @@
         <f aca="false">D115*30</f>
         <v>2022</v>
       </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
+      <c r="F115" s="0" t="n">
+        <f aca="false">SQRT(E115)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G115" s="16"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B116" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>24</v>
+      <c r="B116" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>67.4</v>
@@ -3900,18 +4303,21 @@
         <f aca="false">D116*30</f>
         <v>2022</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
+      <c r="F116" s="0" t="n">
+        <f aca="false">SQRT(E116)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G116" s="16"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="B117" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>24</v>
+      <c r="B117" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>67.4</v>
@@ -3920,18 +4326,21 @@
         <f aca="false">D117*30</f>
         <v>2022</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
+      <c r="F117" s="0" t="n">
+        <f aca="false">SQRT(E117)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G117" s="16"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="B118" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>24</v>
+      <c r="B118" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>67.4</v>
@@ -3940,18 +4349,21 @@
         <f aca="false">D118*30</f>
         <v>2022</v>
       </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
+      <c r="F118" s="0" t="n">
+        <f aca="false">SQRT(E118)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G118" s="16"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>24</v>
+      <c r="B119" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>67.4</v>
@@ -3960,18 +4372,21 @@
         <f aca="false">D119*30</f>
         <v>2022</v>
       </c>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
+      <c r="F119" s="0" t="n">
+        <f aca="false">SQRT(E119)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G119" s="16"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="B120" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>24</v>
+      <c r="B120" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>67.4</v>
@@ -3980,18 +4395,21 @@
         <f aca="false">D120*30</f>
         <v>2022</v>
       </c>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
+      <c r="F120" s="0" t="n">
+        <f aca="false">SQRT(E120)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G120" s="16"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="B121" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>24</v>
+      <c r="B121" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>67.4</v>
@@ -4000,18 +4418,21 @@
         <f aca="false">D121*30</f>
         <v>2022</v>
       </c>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
+      <c r="F121" s="0" t="n">
+        <f aca="false">SQRT(E121)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G121" s="16"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="B122" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>24</v>
+      <c r="B122" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>67.4</v>
@@ -4020,18 +4441,21 @@
         <f aca="false">D122*30</f>
         <v>2022</v>
       </c>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
+      <c r="F122" s="0" t="n">
+        <f aca="false">SQRT(E122)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G122" s="16"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="B123" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>24</v>
+      <c r="B123" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>67.4</v>
@@ -4040,18 +4464,21 @@
         <f aca="false">D123*30</f>
         <v>2022</v>
       </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
+      <c r="F123" s="0" t="n">
+        <f aca="false">SQRT(E123)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G123" s="16"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>24</v>
+      <c r="B124" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>67.4</v>
@@ -4060,18 +4487,21 @@
         <f aca="false">D124*30</f>
         <v>2022</v>
       </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
+      <c r="F124" s="0" t="n">
+        <f aca="false">SQRT(E124)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G124" s="16"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="B125" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>24</v>
+      <c r="B125" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>67.4</v>
@@ -4080,18 +4510,21 @@
         <f aca="false">D125*30</f>
         <v>2022</v>
       </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
+      <c r="F125" s="0" t="n">
+        <f aca="false">SQRT(E125)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G125" s="16"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>24</v>
+      <c r="B126" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>67.4</v>
@@ -4100,18 +4533,21 @@
         <f aca="false">D126*30</f>
         <v>2022</v>
       </c>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
+      <c r="F126" s="0" t="n">
+        <f aca="false">SQRT(E126)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G126" s="16"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="B127" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>24</v>
+      <c r="B127" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>67.4</v>
@@ -4120,18 +4556,21 @@
         <f aca="false">D127*30</f>
         <v>2022</v>
       </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
+      <c r="F127" s="0" t="n">
+        <f aca="false">SQRT(E127)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G127" s="16"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>24</v>
+      <c r="B128" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>67.4</v>
@@ -4140,18 +4579,21 @@
         <f aca="false">D128*30</f>
         <v>2022</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
+      <c r="F128" s="0" t="n">
+        <f aca="false">SQRT(E128)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G128" s="16"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="B129" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>24</v>
+      <c r="B129" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>67.4</v>
@@ -4160,18 +4602,21 @@
         <f aca="false">D129*30</f>
         <v>2022</v>
       </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
+      <c r="F129" s="0" t="n">
+        <f aca="false">SQRT(E129)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G129" s="16"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B130" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>24</v>
+      <c r="B130" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>67.4</v>
@@ -4180,18 +4625,21 @@
         <f aca="false">D130*30</f>
         <v>2022</v>
       </c>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
+      <c r="F130" s="0" t="n">
+        <f aca="false">SQRT(E130)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G130" s="16"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="B131" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>24</v>
+      <c r="B131" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>67.4</v>
@@ -4200,18 +4648,21 @@
         <f aca="false">D131*30</f>
         <v>2022</v>
       </c>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
+      <c r="F131" s="0" t="n">
+        <f aca="false">SQRT(E131)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G131" s="16"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="B132" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>24</v>
+      <c r="B132" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>67.4</v>
@@ -4220,18 +4671,21 @@
         <f aca="false">D132*30</f>
         <v>2022</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
+      <c r="F132" s="0" t="n">
+        <f aca="false">SQRT(E132)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G132" s="16"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="B133" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>24</v>
+      <c r="B133" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>67.4</v>
@@ -4240,18 +4694,21 @@
         <f aca="false">D133*30</f>
         <v>2022</v>
       </c>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
+      <c r="F133" s="0" t="n">
+        <f aca="false">SQRT(E133)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G133" s="16"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>24</v>
+      <c r="B134" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>67.4</v>
@@ -4260,18 +4717,21 @@
         <f aca="false">D134*30</f>
         <v>2022</v>
       </c>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
+      <c r="F134" s="0" t="n">
+        <f aca="false">SQRT(E134)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G134" s="16"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="B135" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>24</v>
+      <c r="B135" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>67.4</v>
@@ -4280,18 +4740,21 @@
         <f aca="false">D135*30</f>
         <v>2022</v>
       </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
+      <c r="F135" s="0" t="n">
+        <f aca="false">SQRT(E135)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G135" s="16"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="B136" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>24</v>
+      <c r="B136" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>67.4</v>
@@ -4300,18 +4763,21 @@
         <f aca="false">D136*30</f>
         <v>2022</v>
       </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
+      <c r="F136" s="0" t="n">
+        <f aca="false">SQRT(E136)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G136" s="16"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="B137" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>24</v>
+      <c r="B137" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>67.4</v>
@@ -4320,18 +4786,21 @@
         <f aca="false">D137*30</f>
         <v>2022</v>
       </c>
-      <c r="F137" s="17"/>
-      <c r="G137" s="17"/>
+      <c r="F137" s="0" t="n">
+        <f aca="false">SQRT(E137)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G137" s="16"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="B138" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>24</v>
+      <c r="B138" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>67.4</v>
@@ -4340,18 +4809,21 @@
         <f aca="false">D138*30</f>
         <v>2022</v>
       </c>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
+      <c r="F138" s="0" t="n">
+        <f aca="false">SQRT(E138)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G138" s="16"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="B139" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>24</v>
+      <c r="B139" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>67.4</v>
@@ -4360,18 +4832,21 @@
         <f aca="false">D139*30</f>
         <v>2022</v>
       </c>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
+      <c r="F139" s="0" t="n">
+        <f aca="false">SQRT(E139)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G139" s="16"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="B140" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>24</v>
+      <c r="B140" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>67.4</v>
@@ -4380,18 +4855,21 @@
         <f aca="false">D140*30</f>
         <v>2022</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
+      <c r="F140" s="0" t="n">
+        <f aca="false">SQRT(E140)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G140" s="16"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="B141" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>24</v>
+      <c r="B141" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>67.4</v>
@@ -4400,18 +4878,21 @@
         <f aca="false">D141*30</f>
         <v>2022</v>
       </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="17"/>
+      <c r="F141" s="0" t="n">
+        <f aca="false">SQRT(E141)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G141" s="16"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="B142" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>24</v>
+      <c r="B142" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>67.4</v>
@@ -4420,18 +4901,21 @@
         <f aca="false">D142*30</f>
         <v>2022</v>
       </c>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
+      <c r="F142" s="0" t="n">
+        <f aca="false">SQRT(E142)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G142" s="16"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="B143" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>24</v>
+      <c r="B143" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>67.4</v>
@@ -4440,18 +4924,21 @@
         <f aca="false">D143*30</f>
         <v>2022</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+      <c r="F143" s="0" t="n">
+        <f aca="false">SQRT(E143)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G143" s="16"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="B144" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>24</v>
+      <c r="B144" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>67.4</v>
@@ -4460,18 +4947,21 @@
         <f aca="false">D144*30</f>
         <v>2022</v>
       </c>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
+      <c r="F144" s="0" t="n">
+        <f aca="false">SQRT(E144)</f>
+        <v>44.9666543118342</v>
+      </c>
+      <c r="G144" s="16"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="B145" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>10</v>
+      <c r="B145" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>130</v>
@@ -4480,18 +4970,21 @@
         <f aca="false">D145*30</f>
         <v>3900</v>
       </c>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
+      <c r="F145" s="0" t="n">
+        <f aca="false">SQRT(E145)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G145" s="16"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="B146" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>10</v>
+      <c r="B146" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>112.1</v>
@@ -4500,18 +4993,21 @@
         <f aca="false">D146*30</f>
         <v>3363</v>
       </c>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
+      <c r="F146" s="0" t="n">
+        <f aca="false">SQRT(E146)</f>
+        <v>57.9913786695919</v>
+      </c>
+      <c r="G146" s="16"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="B147" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>10</v>
+      <c r="B147" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>130</v>
@@ -4520,18 +5016,21 @@
         <f aca="false">D147*30</f>
         <v>3900</v>
       </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
+      <c r="F147" s="0" t="n">
+        <f aca="false">SQRT(E147)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G147" s="16"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="B148" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>10</v>
+      <c r="B148" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>130</v>
@@ -4540,18 +5039,21 @@
         <f aca="false">D148*30</f>
         <v>3900</v>
       </c>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
+      <c r="F148" s="0" t="n">
+        <f aca="false">SQRT(E148)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G148" s="16"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>10</v>
+      <c r="B149" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>130</v>
@@ -4560,18 +5062,21 @@
         <f aca="false">D149*30</f>
         <v>3900</v>
       </c>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
+      <c r="F149" s="0" t="n">
+        <f aca="false">SQRT(E149)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G149" s="16"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>10</v>
+      <c r="B150" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>129</v>
@@ -4580,18 +5085,21 @@
         <f aca="false">D150*30</f>
         <v>3870</v>
       </c>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
+      <c r="F150" s="0" t="n">
+        <f aca="false">SQRT(E150)</f>
+        <v>62.2093240599832</v>
+      </c>
+      <c r="G150" s="16"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="B151" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>10</v>
+      <c r="B151" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>130.5</v>
@@ -4600,18 +5108,21 @@
         <f aca="false">D151*30</f>
         <v>3915</v>
       </c>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
+      <c r="F151" s="0" t="n">
+        <f aca="false">SQRT(E151)</f>
+        <v>62.5699608438426</v>
+      </c>
+      <c r="G151" s="16"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="B152" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>10</v>
+      <c r="B152" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>126.1</v>
@@ -4620,18 +5131,21 @@
         <f aca="false">D152*30</f>
         <v>3783</v>
       </c>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
+      <c r="F152" s="0" t="n">
+        <f aca="false">SQRT(E152)</f>
+        <v>61.5060972587271</v>
+      </c>
+      <c r="G152" s="16"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="B153" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>10</v>
+      <c r="B153" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>129.7</v>
@@ -4640,18 +5154,21 @@
         <f aca="false">D153*30</f>
         <v>3891</v>
       </c>
-      <c r="F153" s="17"/>
-      <c r="G153" s="17"/>
+      <c r="F153" s="0" t="n">
+        <f aca="false">SQRT(E153)</f>
+        <v>62.3778806950028</v>
+      </c>
+      <c r="G153" s="16"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>10</v>
+      <c r="B154" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>130</v>
@@ -4660,18 +5177,21 @@
         <f aca="false">D154*30</f>
         <v>3900</v>
       </c>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
+      <c r="F154" s="0" t="n">
+        <f aca="false">SQRT(E154)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G154" s="16"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="B155" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>10</v>
+      <c r="B155" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>130</v>
@@ -4680,18 +5200,21 @@
         <f aca="false">D155*30</f>
         <v>3900</v>
       </c>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
+      <c r="F155" s="0" t="n">
+        <f aca="false">SQRT(E155)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G155" s="16"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>10</v>
+      <c r="B156" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>130</v>
@@ -4700,18 +5223,21 @@
         <f aca="false">D156*30</f>
         <v>3900</v>
       </c>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
+      <c r="F156" s="0" t="n">
+        <f aca="false">SQRT(E156)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G156" s="16"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>10</v>
+      <c r="B157" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>130</v>
@@ -4720,18 +5246,21 @@
         <f aca="false">D157*30</f>
         <v>3900</v>
       </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
+      <c r="F157" s="0" t="n">
+        <f aca="false">SQRT(E157)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G157" s="16"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>10</v>
+      <c r="B158" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>132.1</v>
@@ -4740,18 +5269,21 @@
         <f aca="false">D158*30</f>
         <v>3963</v>
       </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
+      <c r="F158" s="0" t="n">
+        <f aca="false">SQRT(E158)</f>
+        <v>62.9523629421486</v>
+      </c>
+      <c r="G158" s="16"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>10</v>
+      <c r="B159" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>136.7</v>
@@ -4760,18 +5292,21 @@
         <f aca="false">D159*30</f>
         <v>4101</v>
       </c>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
+      <c r="F159" s="0" t="n">
+        <f aca="false">SQRT(E159)</f>
+        <v>64.0390505863415</v>
+      </c>
+      <c r="G159" s="16"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>10</v>
+      <c r="B160" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>130</v>
@@ -4780,18 +5315,21 @@
         <f aca="false">D160*30</f>
         <v>3900</v>
       </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
+      <c r="F160" s="0" t="n">
+        <f aca="false">SQRT(E160)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G160" s="16"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="B161" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>10</v>
+      <c r="B161" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>130</v>
@@ -4800,18 +5338,21 @@
         <f aca="false">D161*30</f>
         <v>3900</v>
       </c>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
+      <c r="F161" s="0" t="n">
+        <f aca="false">SQRT(E161)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G161" s="16"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="B162" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>10</v>
+      <c r="B162" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>130</v>
@@ -4820,18 +5361,21 @@
         <f aca="false">D162*30</f>
         <v>3900</v>
       </c>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
+      <c r="F162" s="0" t="n">
+        <f aca="false">SQRT(E162)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G162" s="16"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="B163" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>10</v>
+      <c r="B163" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>130</v>
@@ -4840,18 +5384,21 @@
         <f aca="false">D163*30</f>
         <v>3900</v>
       </c>
-      <c r="F163" s="17"/>
-      <c r="G163" s="17"/>
+      <c r="F163" s="0" t="n">
+        <f aca="false">SQRT(E163)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G163" s="16"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>10</v>
+      <c r="B164" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>130</v>
@@ -4860,18 +5407,21 @@
         <f aca="false">D164*30</f>
         <v>3900</v>
       </c>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
+      <c r="F164" s="0" t="n">
+        <f aca="false">SQRT(E164)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="B165" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>10</v>
+      <c r="B165" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>130</v>
@@ -4880,18 +5430,21 @@
         <f aca="false">D165*30</f>
         <v>3900</v>
       </c>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
+      <c r="F165" s="0" t="n">
+        <f aca="false">SQRT(E165)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G165" s="16"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="B166" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>10</v>
+      <c r="B166" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>130</v>
@@ -4900,18 +5453,21 @@
         <f aca="false">D166*30</f>
         <v>3900</v>
       </c>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
+      <c r="F166" s="0" t="n">
+        <f aca="false">SQRT(E166)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G166" s="16"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="B167" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>10</v>
+      <c r="B167" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>130</v>
@@ -4920,18 +5476,21 @@
         <f aca="false">D167*30</f>
         <v>3900</v>
       </c>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
+      <c r="F167" s="0" t="n">
+        <f aca="false">SQRT(E167)</f>
+        <v>62.449979983984</v>
+      </c>
+      <c r="G167" s="16"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="B168" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C168" s="19" t="s">
-        <v>28</v>
+      <c r="B168" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>66.2</v>
@@ -4940,16 +5499,20 @@
         <f aca="false">D168*30</f>
         <v>1986</v>
       </c>
+      <c r="F168" s="0" t="n">
+        <f aca="false">SQRT(E168)</f>
+        <v>44.5645599103144</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="B169" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>28</v>
+      <c r="B169" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C169" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>71.1</v>
@@ -4958,16 +5521,20 @@
         <f aca="false">D169*30</f>
         <v>2133</v>
       </c>
+      <c r="F169" s="0" t="n">
+        <f aca="false">SQRT(E169)</f>
+        <v>46.184412955022</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B170" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>28</v>
+      <c r="B170" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>64.7</v>
@@ -4976,16 +5543,20 @@
         <f aca="false">D170*30</f>
         <v>1941</v>
       </c>
+      <c r="F170" s="0" t="n">
+        <f aca="false">SQRT(E170)</f>
+        <v>44.0567815438214</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="B171" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>28</v>
+      <c r="B171" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>75.4</v>
@@ -4994,16 +5565,20 @@
         <f aca="false">D171*30</f>
         <v>2262</v>
       </c>
+      <c r="F171" s="0" t="n">
+        <f aca="false">SQRT(E171)</f>
+        <v>47.5604878023765</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="B172" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>28</v>
+      <c r="B172" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>65.9</v>
@@ -5012,16 +5587,20 @@
         <f aca="false">D172*30</f>
         <v>1977</v>
       </c>
+      <c r="F172" s="0" t="n">
+        <f aca="false">SQRT(E172)</f>
+        <v>44.4634681508314</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="B173" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>28</v>
+      <c r="B173" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>66.2</v>
@@ -5030,16 +5609,20 @@
         <f aca="false">D173*30</f>
         <v>1986</v>
       </c>
+      <c r="F173" s="0" t="n">
+        <f aca="false">SQRT(E173)</f>
+        <v>44.5645599103144</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="B174" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>28</v>
+      <c r="B174" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>67.2</v>
@@ -5048,16 +5631,20 @@
         <f aca="false">D174*30</f>
         <v>2016</v>
       </c>
+      <c r="F174" s="0" t="n">
+        <f aca="false">SQRT(E174)</f>
+        <v>44.8998886412873</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="B175" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C175" s="19" t="s">
-        <v>28</v>
+      <c r="B175" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>63.3</v>
@@ -5066,16 +5653,20 @@
         <f aca="false">D175*30</f>
         <v>1899</v>
       </c>
+      <c r="F175" s="0" t="n">
+        <f aca="false">SQRT(E175)</f>
+        <v>43.5775171390019</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="B176" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>28</v>
+      <c r="B176" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>67.4</v>
@@ -5084,16 +5675,20 @@
         <f aca="false">D176*30</f>
         <v>2022</v>
       </c>
+      <c r="F176" s="0" t="n">
+        <f aca="false">SQRT(E176)</f>
+        <v>44.9666543118342</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="B177" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>28</v>
+      <c r="B177" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>65.3</v>
@@ -5102,16 +5697,20 @@
         <f aca="false">D177*30</f>
         <v>1959</v>
       </c>
+      <c r="F177" s="0" t="n">
+        <f aca="false">SQRT(E177)</f>
+        <v>44.2605919526615</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="B178" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>28</v>
+      <c r="B178" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>72.8</v>
@@ -5120,16 +5719,20 @@
         <f aca="false">D178*30</f>
         <v>2184</v>
       </c>
+      <c r="F178" s="0" t="n">
+        <f aca="false">SQRT(E178)</f>
+        <v>46.7332857821917</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="B179" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>28</v>
+      <c r="B179" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>76.1</v>
@@ -5138,16 +5741,20 @@
         <f aca="false">D179*30</f>
         <v>2283</v>
       </c>
+      <c r="F179" s="0" t="n">
+        <f aca="false">SQRT(E179)</f>
+        <v>47.7807492616012</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="B180" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" s="19" t="s">
-        <v>28</v>
+      <c r="B180" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>70</v>
@@ -5156,16 +5763,20 @@
         <f aca="false">D180*30</f>
         <v>2100</v>
       </c>
+      <c r="F180" s="0" t="n">
+        <f aca="false">SQRT(E180)</f>
+        <v>45.8257569495584</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="B181" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>28</v>
+      <c r="B181" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>79.9</v>
@@ -5174,16 +5785,20 @@
         <f aca="false">D181*30</f>
         <v>2397</v>
       </c>
+      <c r="F181" s="0" t="n">
+        <f aca="false">SQRT(E181)</f>
+        <v>48.9591666595746</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="B182" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>28</v>
+      <c r="B182" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>71.7</v>
@@ -5192,16 +5807,20 @@
         <f aca="false">D182*30</f>
         <v>2151</v>
       </c>
+      <c r="F182" s="0" t="n">
+        <f aca="false">SQRT(E182)</f>
+        <v>46.3788745012209</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>32</v>
+      <c r="B183" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>55.4</v>
@@ -5210,17 +5829,20 @@
         <f aca="false">D183*30</f>
         <v>1662</v>
       </c>
-      <c r="G183" s="0"/>
+      <c r="F183" s="0" t="n">
+        <f aca="false">SQRT(E183)</f>
+        <v>40.767634221279</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>32</v>
+      <c r="B184" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>55.3</v>
@@ -5229,17 +5851,20 @@
         <f aca="false">D184*30</f>
         <v>1659</v>
       </c>
-      <c r="G184" s="0"/>
+      <c r="F184" s="0" t="n">
+        <f aca="false">SQRT(E184)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>32</v>
+      <c r="B185" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>55.4</v>
@@ -5248,17 +5873,20 @@
         <f aca="false">D185*30</f>
         <v>1662</v>
       </c>
-      <c r="G185" s="0"/>
+      <c r="F185" s="0" t="n">
+        <f aca="false">SQRT(E185)</f>
+        <v>40.767634221279</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>32</v>
+      <c r="B186" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>55.4</v>
@@ -5267,17 +5895,20 @@
         <f aca="false">D186*30</f>
         <v>1662</v>
       </c>
-      <c r="G186" s="0"/>
+      <c r="F186" s="0" t="n">
+        <f aca="false">SQRT(E186)</f>
+        <v>40.767634221279</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>32</v>
+      <c r="B187" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>55.4</v>
@@ -5286,17 +5917,20 @@
         <f aca="false">D187*30</f>
         <v>1662</v>
       </c>
-      <c r="G187" s="0"/>
+      <c r="F187" s="0" t="n">
+        <f aca="false">SQRT(E187)</f>
+        <v>40.767634221279</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>32</v>
+      <c r="B188" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>55.4</v>
@@ -5305,17 +5939,20 @@
         <f aca="false">D188*30</f>
         <v>1662</v>
       </c>
-      <c r="G188" s="0"/>
+      <c r="F188" s="0" t="n">
+        <f aca="false">SQRT(E188)</f>
+        <v>40.767634221279</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>32</v>
+      <c r="B189" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>55.4</v>
@@ -5324,17 +5961,20 @@
         <f aca="false">D189*30</f>
         <v>1662</v>
       </c>
-      <c r="G189" s="0"/>
+      <c r="F189" s="0" t="n">
+        <f aca="false">SQRT(E189)</f>
+        <v>40.767634221279</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>32</v>
+      <c r="B190" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>55.4</v>
@@ -5343,17 +5983,20 @@
         <f aca="false">D190*30</f>
         <v>1662</v>
       </c>
-      <c r="G190" s="0"/>
+      <c r="F190" s="0" t="n">
+        <f aca="false">SQRT(E190)</f>
+        <v>40.767634221279</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C191" s="3" t="s">
+      <c r="B191" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>55.3</v>
@@ -5362,17 +6005,20 @@
         <f aca="false">D191*30</f>
         <v>1659</v>
       </c>
-      <c r="G191" s="0"/>
+      <c r="F191" s="0" t="n">
+        <f aca="false">SQRT(E191)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>55.3</v>
@@ -5381,17 +6027,20 @@
         <f aca="false">D192*30</f>
         <v>1659</v>
       </c>
-      <c r="G192" s="0"/>
+      <c r="F192" s="0" t="n">
+        <f aca="false">SQRT(E192)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>220</v>
+      <c r="B193" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>55.3</v>
@@ -5400,17 +6049,20 @@
         <f aca="false">D193*30</f>
         <v>1659</v>
       </c>
-      <c r="G193" s="0"/>
+      <c r="F193" s="0" t="n">
+        <f aca="false">SQRT(E193)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>220</v>
+      <c r="B194" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>55.3</v>
@@ -5419,17 +6071,20 @@
         <f aca="false">D194*30</f>
         <v>1659</v>
       </c>
-      <c r="G194" s="0"/>
+      <c r="F194" s="0" t="n">
+        <f aca="false">SQRT(E194)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>220</v>
+      <c r="B195" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>55.3</v>
@@ -5438,17 +6093,20 @@
         <f aca="false">D195*30</f>
         <v>1659</v>
       </c>
-      <c r="G195" s="0"/>
+      <c r="F195" s="0" t="n">
+        <f aca="false">SQRT(E195)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>220</v>
+      <c r="B196" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>55.3</v>
@@ -5457,17 +6115,20 @@
         <f aca="false">D196*30</f>
         <v>1659</v>
       </c>
-      <c r="G196" s="0"/>
+      <c r="F196" s="0" t="n">
+        <f aca="false">SQRT(E196)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>220</v>
+      <c r="B197" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>55.3</v>
@@ -5476,17 +6137,20 @@
         <f aca="false">D197*30</f>
         <v>1659</v>
       </c>
-      <c r="G197" s="0"/>
+      <c r="F197" s="0" t="n">
+        <f aca="false">SQRT(E197)</f>
+        <v>40.7308237088326</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="B198" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>7</v>
+      <c r="B198" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>62.2</v>
@@ -5495,18 +6159,21 @@
         <f aca="false">D198*30</f>
         <v>1866</v>
       </c>
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
+      <c r="F198" s="0" t="n">
+        <f aca="false">SQRT(E198)</f>
+        <v>43.1972221329104</v>
+      </c>
+      <c r="G198" s="16"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="B199" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>7</v>
+      <c r="B199" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>60.5</v>
@@ -5515,18 +6182,21 @@
         <f aca="false">D199*30</f>
         <v>1815</v>
       </c>
-      <c r="F199" s="17"/>
-      <c r="G199" s="17"/>
+      <c r="F199" s="0" t="n">
+        <f aca="false">SQRT(E199)</f>
+        <v>42.6028168082816</v>
+      </c>
+      <c r="G199" s="16"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="B200" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>7</v>
+      <c r="B200" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>70.2</v>
@@ -5535,18 +6205,21 @@
         <f aca="false">D200*30</f>
         <v>2106</v>
       </c>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
+      <c r="F200" s="0" t="n">
+        <f aca="false">SQRT(E200)</f>
+        <v>45.8911756223351</v>
+      </c>
+      <c r="G200" s="16"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="B201" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>7</v>
+      <c r="B201" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>63</v>
@@ -5555,18 +6228,21 @@
         <f aca="false">D201*30</f>
         <v>1890</v>
       </c>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
+      <c r="F201" s="0" t="n">
+        <f aca="false">SQRT(E201)</f>
+        <v>43.4741302385683</v>
+      </c>
+      <c r="G201" s="16"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B202" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>7</v>
+      <c r="B202" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>63</v>
@@ -5575,18 +6251,21 @@
         <f aca="false">D202*30</f>
         <v>1890</v>
       </c>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
+      <c r="F202" s="0" t="n">
+        <f aca="false">SQRT(E202)</f>
+        <v>43.4741302385683</v>
+      </c>
+      <c r="G202" s="16"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="B203" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>7</v>
+      <c r="B203" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>62</v>
@@ -5595,18 +6274,21 @@
         <f aca="false">D203*30</f>
         <v>1860</v>
       </c>
-      <c r="F203" s="17"/>
-      <c r="G203" s="17"/>
+      <c r="F203" s="0" t="n">
+        <f aca="false">SQRT(E203)</f>
+        <v>43.1277173056956</v>
+      </c>
+      <c r="G203" s="16"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="B204" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>7</v>
+      <c r="B204" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>61.1</v>
@@ -5615,18 +6297,21 @@
         <f aca="false">D204*30</f>
         <v>1833</v>
       </c>
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
+      <c r="F204" s="0" t="n">
+        <f aca="false">SQRT(E204)</f>
+        <v>42.8135492572153</v>
+      </c>
+      <c r="G204" s="16"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="B205" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>7</v>
+      <c r="B205" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>59.2</v>
@@ -5635,18 +6320,21 @@
         <f aca="false">D205*30</f>
         <v>1776</v>
       </c>
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
+      <c r="F205" s="0" t="n">
+        <f aca="false">SQRT(E205)</f>
+        <v>42.142615011411</v>
+      </c>
+      <c r="G205" s="16"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="B206" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>7</v>
+      <c r="B206" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>79.5</v>
@@ -5655,18 +6343,21 @@
         <f aca="false">D206*30</f>
         <v>2385</v>
       </c>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
+      <c r="F206" s="0" t="n">
+        <f aca="false">SQRT(E206)</f>
+        <v>48.8364617882991</v>
+      </c>
+      <c r="G206" s="16"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>14</v>
+      <c r="B207" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>30</v>
@@ -5675,18 +6366,21 @@
         <f aca="false">D207*30</f>
         <v>900</v>
       </c>
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
+      <c r="F207" s="0" t="n">
+        <f aca="false">SQRT(E207)</f>
+        <v>30</v>
+      </c>
+      <c r="G207" s="16"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>14</v>
+      <c r="B208" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>30</v>
@@ -5695,18 +6389,21 @@
         <f aca="false">D208*30</f>
         <v>900</v>
       </c>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
+      <c r="F208" s="0" t="n">
+        <f aca="false">SQRT(E208)</f>
+        <v>30</v>
+      </c>
+      <c r="G208" s="16"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>14</v>
+      <c r="B209" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>30</v>
@@ -5715,18 +6412,21 @@
         <f aca="false">D209*30</f>
         <v>900</v>
       </c>
-      <c r="F209" s="17"/>
-      <c r="G209" s="17"/>
+      <c r="F209" s="0" t="n">
+        <f aca="false">SQRT(E209)</f>
+        <v>30</v>
+      </c>
+      <c r="G209" s="16"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>14</v>
+      <c r="B210" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>30</v>
@@ -5735,18 +6435,21 @@
         <f aca="false">D210*30</f>
         <v>900</v>
       </c>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
+      <c r="F210" s="0" t="n">
+        <f aca="false">SQRT(E210)</f>
+        <v>30</v>
+      </c>
+      <c r="G210" s="16"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>14</v>
+      <c r="B211" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>30</v>
@@ -5755,18 +6458,21 @@
         <f aca="false">D211*30</f>
         <v>900</v>
       </c>
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
+      <c r="F211" s="0" t="n">
+        <f aca="false">SQRT(E211)</f>
+        <v>30</v>
+      </c>
+      <c r="G211" s="16"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>14</v>
+      <c r="B212" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>30</v>
@@ -5775,18 +6481,21 @@
         <f aca="false">D212*30</f>
         <v>900</v>
       </c>
-      <c r="F212" s="17"/>
-      <c r="G212" s="17"/>
+      <c r="F212" s="0" t="n">
+        <f aca="false">SQRT(E212)</f>
+        <v>30</v>
+      </c>
+      <c r="G212" s="16"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>14</v>
+      <c r="B213" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>30</v>
@@ -5795,18 +6504,21 @@
         <f aca="false">D213*30</f>
         <v>900</v>
       </c>
-      <c r="F213" s="17"/>
-      <c r="G213" s="17"/>
+      <c r="F213" s="0" t="n">
+        <f aca="false">SQRT(E213)</f>
+        <v>30</v>
+      </c>
+      <c r="G213" s="16"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>14</v>
+      <c r="B214" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>30</v>
@@ -5815,18 +6527,21 @@
         <f aca="false">D214*30</f>
         <v>900</v>
       </c>
-      <c r="F214" s="17"/>
-      <c r="G214" s="17"/>
+      <c r="F214" s="0" t="n">
+        <f aca="false">SQRT(E214)</f>
+        <v>30</v>
+      </c>
+      <c r="G214" s="16"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>14</v>
+      <c r="B215" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>30</v>
@@ -5835,18 +6550,21 @@
         <f aca="false">D215*30</f>
         <v>900</v>
       </c>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
+      <c r="F215" s="0" t="n">
+        <f aca="false">SQRT(E215)</f>
+        <v>30</v>
+      </c>
+      <c r="G215" s="16"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>14</v>
+      <c r="B216" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>30</v>
@@ -5855,18 +6573,21 @@
         <f aca="false">D216*30</f>
         <v>900</v>
       </c>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
+      <c r="F216" s="0" t="n">
+        <f aca="false">SQRT(E216)</f>
+        <v>30</v>
+      </c>
+      <c r="G216" s="16"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>14</v>
+      <c r="B217" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>30</v>
@@ -5875,18 +6596,21 @@
         <f aca="false">D217*30</f>
         <v>900</v>
       </c>
-      <c r="F217" s="17"/>
-      <c r="G217" s="17"/>
+      <c r="F217" s="0" t="n">
+        <f aca="false">SQRT(E217)</f>
+        <v>30</v>
+      </c>
+      <c r="G217" s="16"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>14</v>
+      <c r="B218" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>30</v>
@@ -5895,18 +6619,21 @@
         <f aca="false">D218*30</f>
         <v>900</v>
       </c>
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
+      <c r="F218" s="0" t="n">
+        <f aca="false">SQRT(E218)</f>
+        <v>30</v>
+      </c>
+      <c r="G218" s="16"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>14</v>
+      <c r="B219" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>30</v>
@@ -5915,18 +6642,21 @@
         <f aca="false">D219*30</f>
         <v>900</v>
       </c>
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
+      <c r="F219" s="0" t="n">
+        <f aca="false">SQRT(E219)</f>
+        <v>30</v>
+      </c>
+      <c r="G219" s="16"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>14</v>
+      <c r="B220" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>30</v>
@@ -5935,18 +6665,21 @@
         <f aca="false">D220*30</f>
         <v>900</v>
       </c>
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
+      <c r="F220" s="0" t="n">
+        <f aca="false">SQRT(E220)</f>
+        <v>30</v>
+      </c>
+      <c r="G220" s="16"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>14</v>
+      <c r="B221" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>30</v>
@@ -5955,18 +6688,21 @@
         <f aca="false">D221*30</f>
         <v>900</v>
       </c>
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
+      <c r="F221" s="0" t="n">
+        <f aca="false">SQRT(E221)</f>
+        <v>30</v>
+      </c>
+      <c r="G221" s="16"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>14</v>
+      <c r="B222" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>30</v>
@@ -5975,18 +6711,21 @@
         <f aca="false">D222*30</f>
         <v>900</v>
       </c>
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
+      <c r="F222" s="0" t="n">
+        <f aca="false">SQRT(E222)</f>
+        <v>30</v>
+      </c>
+      <c r="G222" s="16"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>14</v>
+      <c r="B223" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>30</v>
@@ -5995,18 +6734,21 @@
         <f aca="false">D223*30</f>
         <v>900</v>
       </c>
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
+      <c r="F223" s="0" t="n">
+        <f aca="false">SQRT(E223)</f>
+        <v>30</v>
+      </c>
+      <c r="G223" s="16"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>14</v>
+      <c r="B224" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>30</v>
@@ -6015,18 +6757,21 @@
         <f aca="false">D224*30</f>
         <v>900</v>
       </c>
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
+      <c r="F224" s="0" t="n">
+        <f aca="false">SQRT(E224)</f>
+        <v>30</v>
+      </c>
+      <c r="G224" s="16"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>14</v>
+      <c r="B225" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>30</v>
@@ -6035,18 +6780,21 @@
         <f aca="false">D225*30</f>
         <v>900</v>
       </c>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
+      <c r="F225" s="0" t="n">
+        <f aca="false">SQRT(E225)</f>
+        <v>30</v>
+      </c>
+      <c r="G225" s="16"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>14</v>
+      <c r="B226" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>30</v>
@@ -6055,18 +6803,21 @@
         <f aca="false">D226*30</f>
         <v>900</v>
       </c>
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
+      <c r="F226" s="0" t="n">
+        <f aca="false">SQRT(E226)</f>
+        <v>30</v>
+      </c>
+      <c r="G226" s="16"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>14</v>
+      <c r="B227" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>30</v>
@@ -6075,18 +6826,21 @@
         <f aca="false">D227*30</f>
         <v>900</v>
       </c>
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
+      <c r="F227" s="0" t="n">
+        <f aca="false">SQRT(E227)</f>
+        <v>30</v>
+      </c>
+      <c r="G227" s="16"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>14</v>
+      <c r="B228" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>30</v>
@@ -6095,18 +6849,21 @@
         <f aca="false">D228*30</f>
         <v>900</v>
       </c>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
+      <c r="F228" s="0" t="n">
+        <f aca="false">SQRT(E228)</f>
+        <v>30</v>
+      </c>
+      <c r="G228" s="16"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>14</v>
+      <c r="B229" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>30</v>
@@ -6115,18 +6872,21 @@
         <f aca="false">D229*30</f>
         <v>900</v>
       </c>
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
+      <c r="F229" s="0" t="n">
+        <f aca="false">SQRT(E229)</f>
+        <v>30</v>
+      </c>
+      <c r="G229" s="16"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>14</v>
+      <c r="B230" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>30</v>
@@ -6135,18 +6895,21 @@
         <f aca="false">D230*30</f>
         <v>900</v>
       </c>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
+      <c r="F230" s="0" t="n">
+        <f aca="false">SQRT(E230)</f>
+        <v>30</v>
+      </c>
+      <c r="G230" s="16"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>14</v>
+      <c r="B231" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>30</v>
@@ -6155,18 +6918,21 @@
         <f aca="false">D231*30</f>
         <v>900</v>
       </c>
-      <c r="F231" s="17"/>
-      <c r="G231" s="17"/>
+      <c r="F231" s="0" t="n">
+        <f aca="false">SQRT(E231)</f>
+        <v>30</v>
+      </c>
+      <c r="G231" s="16"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>14</v>
+      <c r="B232" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>30</v>
@@ -6175,18 +6941,21 @@
         <f aca="false">D232*30</f>
         <v>900</v>
       </c>
-      <c r="F232" s="17"/>
-      <c r="G232" s="17"/>
+      <c r="F232" s="0" t="n">
+        <f aca="false">SQRT(E232)</f>
+        <v>30</v>
+      </c>
+      <c r="G232" s="16"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>14</v>
+      <c r="B233" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>30</v>
@@ -6195,18 +6964,21 @@
         <f aca="false">D233*30</f>
         <v>900</v>
       </c>
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
+      <c r="F233" s="0" t="n">
+        <f aca="false">SQRT(E233)</f>
+        <v>30</v>
+      </c>
+      <c r="G233" s="16"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>14</v>
+      <c r="B234" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>30</v>
@@ -6215,18 +6987,21 @@
         <f aca="false">D234*30</f>
         <v>900</v>
       </c>
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
+      <c r="F234" s="0" t="n">
+        <f aca="false">SQRT(E234)</f>
+        <v>30</v>
+      </c>
+      <c r="G234" s="16"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>14</v>
+      <c r="B235" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>30</v>
@@ -6235,18 +7010,21 @@
         <f aca="false">D235*30</f>
         <v>900</v>
       </c>
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
+      <c r="F235" s="0" t="n">
+        <f aca="false">SQRT(E235)</f>
+        <v>30</v>
+      </c>
+      <c r="G235" s="16"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>14</v>
+      <c r="B236" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D236" s="0" t="n">
         <v>30</v>
@@ -6255,18 +7033,21 @@
         <f aca="false">D236*30</f>
         <v>900</v>
       </c>
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
+      <c r="F236" s="0" t="n">
+        <f aca="false">SQRT(E236)</f>
+        <v>30</v>
+      </c>
+      <c r="G236" s="16"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>14</v>
+      <c r="B237" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>30</v>
@@ -6275,18 +7056,21 @@
         <f aca="false">D237*30</f>
         <v>900</v>
       </c>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
+      <c r="F237" s="0" t="n">
+        <f aca="false">SQRT(E237)</f>
+        <v>30</v>
+      </c>
+      <c r="G237" s="16"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>14</v>
+      <c r="B238" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D238" s="0" t="n">
         <v>30</v>
@@ -6295,18 +7079,21 @@
         <f aca="false">D238*30</f>
         <v>900</v>
       </c>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
+      <c r="F238" s="0" t="n">
+        <f aca="false">SQRT(E238)</f>
+        <v>30</v>
+      </c>
+      <c r="G238" s="16"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>14</v>
+      <c r="B239" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>30</v>
@@ -6315,18 +7102,21 @@
         <f aca="false">D239*30</f>
         <v>900</v>
       </c>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
+      <c r="F239" s="0" t="n">
+        <f aca="false">SQRT(E239)</f>
+        <v>30</v>
+      </c>
+      <c r="G239" s="16"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>14</v>
+      <c r="B240" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D240" s="0" t="n">
         <v>30</v>
@@ -6335,18 +7125,21 @@
         <f aca="false">D240*30</f>
         <v>900</v>
       </c>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
+      <c r="F240" s="0" t="n">
+        <f aca="false">SQRT(E240)</f>
+        <v>30</v>
+      </c>
+      <c r="G240" s="16"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>14</v>
+      <c r="B241" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D241" s="0" t="n">
         <v>30</v>
@@ -6355,18 +7148,21 @@
         <f aca="false">D241*30</f>
         <v>900</v>
       </c>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
+      <c r="F241" s="0" t="n">
+        <f aca="false">SQRT(E241)</f>
+        <v>30</v>
+      </c>
+      <c r="G241" s="16"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>14</v>
+      <c r="B242" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>30</v>
@@ -6375,18 +7171,21 @@
         <f aca="false">D242*30</f>
         <v>900</v>
       </c>
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
+      <c r="F242" s="0" t="n">
+        <f aca="false">SQRT(E242)</f>
+        <v>30</v>
+      </c>
+      <c r="G242" s="16"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>14</v>
+      <c r="B243" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D243" s="0" t="n">
         <v>30</v>
@@ -6395,18 +7194,21 @@
         <f aca="false">D243*30</f>
         <v>900</v>
       </c>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
+      <c r="F243" s="0" t="n">
+        <f aca="false">SQRT(E243)</f>
+        <v>30</v>
+      </c>
+      <c r="G243" s="16"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>14</v>
+      <c r="B244" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D244" s="0" t="n">
         <v>30</v>
@@ -6415,18 +7217,21 @@
         <f aca="false">D244*30</f>
         <v>900</v>
       </c>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
+      <c r="F244" s="0" t="n">
+        <f aca="false">SQRT(E244)</f>
+        <v>30</v>
+      </c>
+      <c r="G244" s="16"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>14</v>
+      <c r="B245" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D245" s="0" t="n">
         <v>30</v>
@@ -6435,18 +7240,21 @@
         <f aca="false">D245*30</f>
         <v>900</v>
       </c>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
+      <c r="F245" s="0" t="n">
+        <f aca="false">SQRT(E245)</f>
+        <v>30</v>
+      </c>
+      <c r="G245" s="16"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>14</v>
+      <c r="B246" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D246" s="0" t="n">
         <v>30</v>
@@ -6455,18 +7263,21 @@
         <f aca="false">D246*30</f>
         <v>900</v>
       </c>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
+      <c r="F246" s="0" t="n">
+        <f aca="false">SQRT(E246)</f>
+        <v>30</v>
+      </c>
+      <c r="G246" s="16"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>14</v>
+      <c r="B247" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D247" s="0" t="n">
         <v>30</v>
@@ -6475,18 +7286,21 @@
         <f aca="false">D247*30</f>
         <v>900</v>
       </c>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
+      <c r="F247" s="0" t="n">
+        <f aca="false">SQRT(E247)</f>
+        <v>30</v>
+      </c>
+      <c r="G247" s="16"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>14</v>
+      <c r="B248" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D248" s="0" t="n">
         <v>30</v>
@@ -6495,18 +7309,21 @@
         <f aca="false">D248*30</f>
         <v>900</v>
       </c>
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
+      <c r="F248" s="0" t="n">
+        <f aca="false">SQRT(E248)</f>
+        <v>30</v>
+      </c>
+      <c r="G248" s="16"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>14</v>
+      <c r="B249" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D249" s="0" t="n">
         <v>30</v>
@@ -6515,18 +7332,21 @@
         <f aca="false">D249*30</f>
         <v>900</v>
       </c>
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
+      <c r="F249" s="0" t="n">
+        <f aca="false">SQRT(E249)</f>
+        <v>30</v>
+      </c>
+      <c r="G249" s="16"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>14</v>
+      <c r="B250" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D250" s="0" t="n">
         <v>30</v>
@@ -6535,18 +7355,21 @@
         <f aca="false">D250*30</f>
         <v>900</v>
       </c>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
+      <c r="F250" s="0" t="n">
+        <f aca="false">SQRT(E250)</f>
+        <v>30</v>
+      </c>
+      <c r="G250" s="16"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>14</v>
+      <c r="B251" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D251" s="0" t="n">
         <v>30</v>
@@ -6555,18 +7378,21 @@
         <f aca="false">D251*30</f>
         <v>900</v>
       </c>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
+      <c r="F251" s="0" t="n">
+        <f aca="false">SQRT(E251)</f>
+        <v>30</v>
+      </c>
+      <c r="G251" s="16"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>14</v>
+      <c r="B252" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D252" s="0" t="n">
         <v>30</v>
@@ -6575,18 +7401,21 @@
         <f aca="false">D252*30</f>
         <v>900</v>
       </c>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
+      <c r="F252" s="0" t="n">
+        <f aca="false">SQRT(E252)</f>
+        <v>30</v>
+      </c>
+      <c r="G252" s="16"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>14</v>
+      <c r="B253" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D253" s="0" t="n">
         <v>30</v>
@@ -6595,18 +7424,21 @@
         <f aca="false">D253*30</f>
         <v>900</v>
       </c>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
+      <c r="F253" s="0" t="n">
+        <f aca="false">SQRT(E253)</f>
+        <v>30</v>
+      </c>
+      <c r="G253" s="16"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>14</v>
+      <c r="B254" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D254" s="0" t="n">
         <v>30</v>
@@ -6615,18 +7447,21 @@
         <f aca="false">D254*30</f>
         <v>900</v>
       </c>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
+      <c r="F254" s="0" t="n">
+        <f aca="false">SQRT(E254)</f>
+        <v>30</v>
+      </c>
+      <c r="G254" s="16"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>14</v>
+      <c r="B255" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D255" s="0" t="n">
         <v>30</v>
@@ -6635,18 +7470,21 @@
         <f aca="false">D255*30</f>
         <v>900</v>
       </c>
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
+      <c r="F255" s="0" t="n">
+        <f aca="false">SQRT(E255)</f>
+        <v>30</v>
+      </c>
+      <c r="G255" s="16"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>14</v>
+      <c r="B256" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D256" s="0" t="n">
         <v>30</v>
@@ -6655,18 +7493,21 @@
         <f aca="false">D256*30</f>
         <v>900</v>
       </c>
-      <c r="F256" s="17"/>
-      <c r="G256" s="17"/>
+      <c r="F256" s="0" t="n">
+        <f aca="false">SQRT(E256)</f>
+        <v>30</v>
+      </c>
+      <c r="G256" s="16"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>14</v>
+      <c r="B257" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D257" s="0" t="n">
         <v>30</v>
@@ -6675,18 +7516,21 @@
         <f aca="false">D257*30</f>
         <v>900</v>
       </c>
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
+      <c r="F257" s="0" t="n">
+        <f aca="false">SQRT(E257)</f>
+        <v>30</v>
+      </c>
+      <c r="G257" s="16"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>14</v>
+      <c r="B258" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D258" s="0" t="n">
         <v>30</v>
@@ -6695,18 +7539,21 @@
         <f aca="false">D258*30</f>
         <v>900</v>
       </c>
-      <c r="F258" s="17"/>
-      <c r="G258" s="17"/>
+      <c r="F258" s="0" t="n">
+        <f aca="false">SQRT(E258)</f>
+        <v>30</v>
+      </c>
+      <c r="G258" s="16"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>14</v>
+      <c r="B259" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D259" s="0" t="n">
         <v>30</v>
@@ -6715,18 +7562,21 @@
         <f aca="false">D259*30</f>
         <v>900</v>
       </c>
-      <c r="F259" s="17"/>
-      <c r="G259" s="17"/>
+      <c r="F259" s="0" t="n">
+        <f aca="false">SQRT(E259)</f>
+        <v>30</v>
+      </c>
+      <c r="G259" s="16"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>14</v>
+      <c r="B260" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D260" s="0" t="n">
         <v>30</v>
@@ -6735,18 +7585,21 @@
         <f aca="false">D260*30</f>
         <v>900</v>
       </c>
-      <c r="F260" s="17"/>
-      <c r="G260" s="17"/>
+      <c r="F260" s="0" t="n">
+        <f aca="false">SQRT(E260)</f>
+        <v>30</v>
+      </c>
+      <c r="G260" s="16"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>14</v>
+      <c r="B261" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D261" s="0" t="n">
         <v>30</v>
@@ -6755,18 +7608,21 @@
         <f aca="false">D261*30</f>
         <v>900</v>
       </c>
-      <c r="F261" s="17"/>
-      <c r="G261" s="17"/>
+      <c r="F261" s="0" t="n">
+        <f aca="false">SQRT(E261)</f>
+        <v>30</v>
+      </c>
+      <c r="G261" s="16"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>14</v>
+      <c r="B262" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D262" s="0" t="n">
         <v>30</v>
@@ -6775,18 +7631,21 @@
         <f aca="false">D262*30</f>
         <v>900</v>
       </c>
-      <c r="F262" s="17"/>
-      <c r="G262" s="17"/>
+      <c r="F262" s="0" t="n">
+        <f aca="false">SQRT(E262)</f>
+        <v>30</v>
+      </c>
+      <c r="G262" s="16"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>14</v>
+      <c r="B263" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D263" s="0" t="n">
         <v>30</v>
@@ -6795,18 +7654,21 @@
         <f aca="false">D263*30</f>
         <v>900</v>
       </c>
-      <c r="F263" s="17"/>
-      <c r="G263" s="17"/>
+      <c r="F263" s="0" t="n">
+        <f aca="false">SQRT(E263)</f>
+        <v>30</v>
+      </c>
+      <c r="G263" s="16"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>14</v>
+      <c r="B264" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D264" s="0" t="n">
         <v>30</v>
@@ -6815,18 +7677,21 @@
         <f aca="false">D264*30</f>
         <v>900</v>
       </c>
-      <c r="F264" s="17"/>
-      <c r="G264" s="17"/>
+      <c r="F264" s="0" t="n">
+        <f aca="false">SQRT(E264)</f>
+        <v>30</v>
+      </c>
+      <c r="G264" s="16"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>14</v>
+      <c r="B265" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D265" s="0" t="n">
         <v>30</v>
@@ -6835,18 +7700,21 @@
         <f aca="false">D265*30</f>
         <v>900</v>
       </c>
-      <c r="F265" s="17"/>
-      <c r="G265" s="17"/>
+      <c r="F265" s="0" t="n">
+        <f aca="false">SQRT(E265)</f>
+        <v>30</v>
+      </c>
+      <c r="G265" s="16"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>14</v>
+      <c r="B266" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D266" s="0" t="n">
         <v>30</v>
@@ -6855,18 +7723,21 @@
         <f aca="false">D266*30</f>
         <v>900</v>
       </c>
-      <c r="F266" s="17"/>
-      <c r="G266" s="17"/>
+      <c r="F266" s="0" t="n">
+        <f aca="false">SQRT(E266)</f>
+        <v>30</v>
+      </c>
+      <c r="G266" s="16"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>14</v>
+      <c r="B267" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D267" s="0" t="n">
         <v>30</v>
@@ -6875,18 +7746,21 @@
         <f aca="false">D267*30</f>
         <v>900</v>
       </c>
-      <c r="F267" s="17"/>
-      <c r="G267" s="17"/>
+      <c r="F267" s="0" t="n">
+        <f aca="false">SQRT(E267)</f>
+        <v>30</v>
+      </c>
+      <c r="G267" s="16"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>14</v>
+      <c r="B268" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D268" s="0" t="n">
         <v>30</v>
@@ -6895,18 +7769,21 @@
         <f aca="false">D268*30</f>
         <v>900</v>
       </c>
-      <c r="F268" s="17"/>
-      <c r="G268" s="17"/>
+      <c r="F268" s="0" t="n">
+        <f aca="false">SQRT(E268)</f>
+        <v>30</v>
+      </c>
+      <c r="G268" s="16"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>14</v>
+      <c r="B269" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D269" s="0" t="n">
         <v>30</v>
@@ -6915,18 +7792,21 @@
         <f aca="false">D269*30</f>
         <v>900</v>
       </c>
-      <c r="F269" s="17"/>
-      <c r="G269" s="17"/>
+      <c r="F269" s="0" t="n">
+        <f aca="false">SQRT(E269)</f>
+        <v>30</v>
+      </c>
+      <c r="G269" s="16"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>14</v>
+      <c r="B270" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D270" s="0" t="n">
         <v>30</v>
@@ -6935,18 +7815,21 @@
         <f aca="false">D270*30</f>
         <v>900</v>
       </c>
-      <c r="F270" s="17"/>
-      <c r="G270" s="17"/>
+      <c r="F270" s="0" t="n">
+        <f aca="false">SQRT(E270)</f>
+        <v>30</v>
+      </c>
+      <c r="G270" s="16"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>14</v>
+      <c r="B271" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D271" s="0" t="n">
         <v>30</v>
@@ -6955,18 +7838,21 @@
         <f aca="false">D271*30</f>
         <v>900</v>
       </c>
-      <c r="F271" s="17"/>
-      <c r="G271" s="17"/>
+      <c r="F271" s="0" t="n">
+        <f aca="false">SQRT(E271)</f>
+        <v>30</v>
+      </c>
+      <c r="G271" s="16"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>14</v>
+      <c r="B272" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D272" s="0" t="n">
         <v>30</v>
@@ -6975,18 +7861,21 @@
         <f aca="false">D272*30</f>
         <v>900</v>
       </c>
-      <c r="F272" s="17"/>
-      <c r="G272" s="17"/>
+      <c r="F272" s="0" t="n">
+        <f aca="false">SQRT(E272)</f>
+        <v>30</v>
+      </c>
+      <c r="G272" s="16"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>14</v>
+      <c r="B273" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D273" s="0" t="n">
         <v>30</v>
@@ -6995,18 +7884,21 @@
         <f aca="false">D273*30</f>
         <v>900</v>
       </c>
-      <c r="F273" s="17"/>
-      <c r="G273" s="17"/>
+      <c r="F273" s="0" t="n">
+        <f aca="false">SQRT(E273)</f>
+        <v>30</v>
+      </c>
+      <c r="G273" s="16"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>14</v>
+      <c r="B274" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D274" s="0" t="n">
         <v>30</v>
@@ -7015,18 +7907,21 @@
         <f aca="false">D274*30</f>
         <v>900</v>
       </c>
-      <c r="F274" s="17"/>
-      <c r="G274" s="17"/>
+      <c r="F274" s="0" t="n">
+        <f aca="false">SQRT(E274)</f>
+        <v>30</v>
+      </c>
+      <c r="G274" s="16"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>14</v>
+      <c r="B275" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D275" s="0" t="n">
         <v>30</v>
@@ -7035,18 +7930,21 @@
         <f aca="false">D275*30</f>
         <v>900</v>
       </c>
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
+      <c r="F275" s="0" t="n">
+        <f aca="false">SQRT(E275)</f>
+        <v>30</v>
+      </c>
+      <c r="G275" s="16"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>14</v>
+      <c r="B276" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D276" s="0" t="n">
         <v>30</v>
@@ -7055,18 +7953,21 @@
         <f aca="false">D276*30</f>
         <v>900</v>
       </c>
-      <c r="F276" s="17"/>
-      <c r="G276" s="17"/>
+      <c r="F276" s="0" t="n">
+        <f aca="false">SQRT(E276)</f>
+        <v>30</v>
+      </c>
+      <c r="G276" s="16"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>14</v>
+      <c r="B277" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D277" s="0" t="n">
         <v>30</v>
@@ -7075,18 +7976,21 @@
         <f aca="false">D277*30</f>
         <v>900</v>
       </c>
-      <c r="F277" s="17"/>
-      <c r="G277" s="17"/>
+      <c r="F277" s="0" t="n">
+        <f aca="false">SQRT(E277)</f>
+        <v>30</v>
+      </c>
+      <c r="G277" s="16"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>14</v>
+      <c r="B278" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D278" s="0" t="n">
         <v>30</v>
@@ -7095,18 +7999,21 @@
         <f aca="false">D278*30</f>
         <v>900</v>
       </c>
-      <c r="F278" s="17"/>
-      <c r="G278" s="17"/>
+      <c r="F278" s="0" t="n">
+        <f aca="false">SQRT(E278)</f>
+        <v>30</v>
+      </c>
+      <c r="G278" s="16"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="B279" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C279" s="16" t="s">
-        <v>38</v>
+      <c r="B279" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C279" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D279" s="0" t="n">
         <v>30</v>
@@ -7115,18 +8022,21 @@
         <f aca="false">D279*30</f>
         <v>900</v>
       </c>
-      <c r="F279" s="17"/>
-      <c r="G279" s="17"/>
+      <c r="F279" s="0" t="n">
+        <f aca="false">SQRT(E279)</f>
+        <v>30</v>
+      </c>
+      <c r="G279" s="16"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="B280" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C280" s="16" t="s">
-        <v>38</v>
+      <c r="B280" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D280" s="0" t="n">
         <v>30</v>
@@ -7135,18 +8045,21 @@
         <f aca="false">D280*30</f>
         <v>900</v>
       </c>
-      <c r="F280" s="17"/>
-      <c r="G280" s="17"/>
+      <c r="F280" s="0" t="n">
+        <f aca="false">SQRT(E280)</f>
+        <v>30</v>
+      </c>
+      <c r="G280" s="16"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="B281" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C281" s="16" t="s">
-        <v>38</v>
+      <c r="B281" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D281" s="0" t="n">
         <v>60</v>
@@ -7155,18 +8068,21 @@
         <f aca="false">D281*30</f>
         <v>1800</v>
       </c>
-      <c r="F281" s="17"/>
-      <c r="G281" s="17"/>
+      <c r="F281" s="0" t="n">
+        <f aca="false">SQRT(E281)</f>
+        <v>42.4264068711929</v>
+      </c>
+      <c r="G281" s="16"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="B282" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C282" s="16" t="s">
-        <v>38</v>
+      <c r="B282" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D282" s="0" t="n">
         <v>30</v>
@@ -7175,18 +8091,21 @@
         <f aca="false">D282*30</f>
         <v>900</v>
       </c>
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
+      <c r="F282" s="0" t="n">
+        <f aca="false">SQRT(E282)</f>
+        <v>30</v>
+      </c>
+      <c r="G282" s="16"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="B283" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C283" s="16" t="s">
-        <v>38</v>
+      <c r="B283" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D283" s="0" t="n">
         <v>30</v>
@@ -7195,18 +8114,21 @@
         <f aca="false">D283*30</f>
         <v>900</v>
       </c>
-      <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
+      <c r="F283" s="0" t="n">
+        <f aca="false">SQRT(E283)</f>
+        <v>30</v>
+      </c>
+      <c r="G283" s="16"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="B284" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C284" s="16" t="s">
-        <v>38</v>
+      <c r="B284" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D284" s="0" t="n">
         <v>30</v>
@@ -7215,18 +8137,21 @@
         <f aca="false">D284*30</f>
         <v>900</v>
       </c>
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
+      <c r="F284" s="0" t="n">
+        <f aca="false">SQRT(E284)</f>
+        <v>30</v>
+      </c>
+      <c r="G284" s="16"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="B285" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C285" s="16" t="s">
-        <v>42</v>
+      <c r="B285" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D285" s="0" t="n">
         <v>30</v>
@@ -7235,18 +8160,21 @@
         <f aca="false">D285*30</f>
         <v>900</v>
       </c>
-      <c r="F285" s="17"/>
-      <c r="G285" s="17"/>
+      <c r="F285" s="0" t="n">
+        <f aca="false">SQRT(E285)</f>
+        <v>30</v>
+      </c>
+      <c r="G285" s="16"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="B286" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C286" s="16" t="s">
-        <v>42</v>
+      <c r="B286" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D286" s="0" t="n">
         <v>30</v>
@@ -7255,18 +8183,21 @@
         <f aca="false">D286*30</f>
         <v>900</v>
       </c>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
+      <c r="F286" s="0" t="n">
+        <f aca="false">SQRT(E286)</f>
+        <v>30</v>
+      </c>
+      <c r="G286" s="16"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="B287" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C287" s="16" t="s">
-        <v>42</v>
+      <c r="B287" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D287" s="0" t="n">
         <v>30</v>
@@ -7275,18 +8206,21 @@
         <f aca="false">D287*30</f>
         <v>900</v>
       </c>
-      <c r="F287" s="17"/>
-      <c r="G287" s="17"/>
+      <c r="F287" s="0" t="n">
+        <f aca="false">SQRT(E287)</f>
+        <v>30</v>
+      </c>
+      <c r="G287" s="16"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="B288" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C288" s="16" t="s">
-        <v>42</v>
+      <c r="B288" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D288" s="0" t="n">
         <v>30</v>
@@ -7295,18 +8229,21 @@
         <f aca="false">D288*30</f>
         <v>900</v>
       </c>
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
+      <c r="F288" s="0" t="n">
+        <f aca="false">SQRT(E288)</f>
+        <v>30</v>
+      </c>
+      <c r="G288" s="16"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="B289" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C289" s="16" t="s">
-        <v>42</v>
+      <c r="B289" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D289" s="0" t="n">
         <v>30</v>
@@ -7315,18 +8252,21 @@
         <f aca="false">D289*30</f>
         <v>900</v>
       </c>
-      <c r="F289" s="17"/>
-      <c r="G289" s="17"/>
+      <c r="F289" s="0" t="n">
+        <f aca="false">SQRT(E289)</f>
+        <v>30</v>
+      </c>
+      <c r="G289" s="16"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="B290" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C290" s="16" t="s">
-        <v>42</v>
+      <c r="B290" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D290" s="0" t="n">
         <v>30</v>
@@ -7335,18 +8275,21 @@
         <f aca="false">D290*30</f>
         <v>900</v>
       </c>
-      <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
+      <c r="F290" s="0" t="n">
+        <f aca="false">SQRT(E290)</f>
+        <v>30</v>
+      </c>
+      <c r="G290" s="16"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="B291" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C291" s="16" t="s">
-        <v>45</v>
+      <c r="B291" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D291" s="0" t="n">
         <v>30</v>
@@ -7355,18 +8298,21 @@
         <f aca="false">D291*30</f>
         <v>900</v>
       </c>
-      <c r="F291" s="17"/>
-      <c r="G291" s="17"/>
+      <c r="F291" s="0" t="n">
+        <f aca="false">SQRT(E291)</f>
+        <v>30</v>
+      </c>
+      <c r="G291" s="16"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="B292" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C292" s="16" t="s">
-        <v>45</v>
+      <c r="B292" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C292" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D292" s="0" t="n">
         <v>30</v>
@@ -7375,18 +8321,21 @@
         <f aca="false">D292*30</f>
         <v>900</v>
       </c>
-      <c r="F292" s="17"/>
-      <c r="G292" s="17"/>
+      <c r="F292" s="0" t="n">
+        <f aca="false">SQRT(E292)</f>
+        <v>30</v>
+      </c>
+      <c r="G292" s="16"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="B293" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C293" s="16" t="s">
-        <v>45</v>
+      <c r="B293" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D293" s="0" t="n">
         <v>30</v>
@@ -7395,18 +8344,21 @@
         <f aca="false">D293*30</f>
         <v>900</v>
       </c>
-      <c r="F293" s="17"/>
-      <c r="G293" s="17"/>
+      <c r="F293" s="0" t="n">
+        <f aca="false">SQRT(E293)</f>
+        <v>30</v>
+      </c>
+      <c r="G293" s="16"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="B294" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C294" s="16" t="s">
-        <v>45</v>
+      <c r="B294" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D294" s="0" t="n">
         <v>30</v>
@@ -7415,18 +8367,21 @@
         <f aca="false">D294*30</f>
         <v>900</v>
       </c>
-      <c r="F294" s="17"/>
-      <c r="G294" s="17"/>
+      <c r="F294" s="0" t="n">
+        <f aca="false">SQRT(E294)</f>
+        <v>30</v>
+      </c>
+      <c r="G294" s="16"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="B295" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C295" s="16" t="s">
-        <v>45</v>
+      <c r="B295" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C295" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D295" s="0" t="n">
         <v>30</v>
@@ -7435,18 +8390,21 @@
         <f aca="false">D295*30</f>
         <v>900</v>
       </c>
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
+      <c r="F295" s="0" t="n">
+        <f aca="false">SQRT(E295)</f>
+        <v>30</v>
+      </c>
+      <c r="G295" s="16"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="B296" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="C296" s="16" t="s">
-        <v>45</v>
+      <c r="B296" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D296" s="0" t="n">
         <v>30</v>
@@ -7455,18 +8413,21 @@
         <f aca="false">D296*30</f>
         <v>900</v>
       </c>
-      <c r="F296" s="17"/>
-      <c r="G296" s="17"/>
+      <c r="F296" s="0" t="n">
+        <f aca="false">SQRT(E296)</f>
+        <v>30</v>
+      </c>
+      <c r="G296" s="16"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="B297" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C297" s="16" t="s">
-        <v>40</v>
+      <c r="B297" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D297" s="0" t="n">
         <v>30</v>
@@ -7475,18 +8436,21 @@
         <f aca="false">D297*30</f>
         <v>900</v>
       </c>
-      <c r="F297" s="17"/>
-      <c r="G297" s="17"/>
+      <c r="F297" s="0" t="n">
+        <f aca="false">SQRT(E297)</f>
+        <v>30</v>
+      </c>
+      <c r="G297" s="16"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="B298" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C298" s="16" t="s">
-        <v>40</v>
+      <c r="B298" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C298" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D298" s="0" t="n">
         <v>30</v>
@@ -7495,18 +8459,21 @@
         <f aca="false">D298*30</f>
         <v>900</v>
       </c>
-      <c r="F298" s="17"/>
-      <c r="G298" s="17"/>
+      <c r="F298" s="0" t="n">
+        <f aca="false">SQRT(E298)</f>
+        <v>30</v>
+      </c>
+      <c r="G298" s="16"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="B299" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C299" s="16" t="s">
-        <v>40</v>
+      <c r="B299" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D299" s="0" t="n">
         <v>30</v>
@@ -7515,8 +8482,11 @@
         <f aca="false">D299*30</f>
         <v>900</v>
       </c>
-      <c r="F299" s="17"/>
-      <c r="G299" s="17"/>
+      <c r="F299" s="0" t="n">
+        <f aca="false">SQRT(E299)</f>
+        <v>30</v>
+      </c>
+      <c r="G299" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
